--- a/src/config/excel/accounts.xlsx
+++ b/src/config/excel/accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\test_ExamReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA1F71-74C9-4780-BBCE-18EC8A1BE4B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A095FA-6354-4055-98F8-7865286E47AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="7100" windowHeight="10401" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11720" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>userName</t>
   </si>
@@ -49,19 +49,40 @@
   </si>
   <si>
     <t>datdinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dat dinh </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ngoc trinh</t>
+  </si>
+  <si>
+    <t>datdinh2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +105,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,40 +427,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F046EB61-BE10-4508-9729-C93D412EBD8E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.649999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/config/excel/accounts.xlsx
+++ b/src/config/excel/accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\test_ExamReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A095FA-6354-4055-98F8-7865286E47AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657E58C-D55A-4C2A-BA1E-66D25179C5A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11720" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
+    <workbookView xWindow="343" yWindow="1063" windowWidth="11487" windowHeight="10402" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>userName</t>
   </si>
@@ -48,22 +48,13 @@
     <t>grade</t>
   </si>
   <si>
-    <t>datdinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dat dinh </t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ngoc trinh</t>
-  </si>
-  <si>
-    <t>datdinh2</t>
+    <t>datdinh3</t>
+  </si>
+  <si>
+    <t>dat3</t>
   </si>
 </sst>
 </file>
@@ -427,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F046EB61-BE10-4508-9729-C93D412EBD8E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.649999999999999" x14ac:dyDescent="0.35"/>
@@ -460,36 +451,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/config/excel/accounts.xlsx
+++ b/src/config/excel/accounts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\test_ExamReg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657E58C-D55A-4C2A-BA1E-66D25179C5A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57115C9B-5D59-4340-85AB-DF263580B352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="343" yWindow="1063" windowWidth="11487" windowHeight="10402" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
+    <workbookView xWindow="7842" yWindow="1119" windowWidth="11487" windowHeight="10401" xr2:uid="{2F6EBE46-FFA3-42E0-971A-65BAE9437A39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>userName</t>
   </si>
@@ -48,13 +48,31 @@
     <t>grade</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>datdinh3</t>
-  </si>
-  <si>
-    <t>dat3</t>
+    <t>Đinh Tiến A</t>
+  </si>
+  <si>
+    <t>17020669</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Đinh Tiến B</t>
+  </si>
+  <si>
+    <t>17020670</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn C</t>
+  </si>
+  <si>
+    <t>17020671</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>dat</t>
   </si>
 </sst>
 </file>
@@ -418,16 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F046EB61-BE10-4508-9729-C93D412EBD8E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.649999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -450,20 +469,54 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>17020669</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>17020670</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>17020671</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
